--- a/KSS.xlsx
+++ b/KSS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugene.limyj\Desktop\Finance Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed04691dbd909eac/Desktop/Model/Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014ABAB8-0E82-49C4-AB3B-FF7E4BCA389C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{014ABAB8-0E82-49C4-AB3B-FF7E4BCA389C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F5C14CB-29BC-4C26-B07A-5574C8DF26CC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Price</t>
   </si>
@@ -148,6 +148,15 @@
   </si>
   <si>
     <t>avg turnover: 120 days</t>
+  </si>
+  <si>
+    <t>Q1 25</t>
+  </si>
+  <si>
+    <t>Q2 25</t>
+  </si>
+  <si>
+    <t>Q3 25</t>
   </si>
 </sst>
 </file>
@@ -155,7 +164,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -192,7 +201,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -214,16 +223,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>607695</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -238,8 +247,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6210300" y="68580"/>
-          <a:ext cx="7620" cy="4511040"/>
+          <a:off x="7239000" y="0"/>
+          <a:ext cx="7620" cy="4701540"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -530,22 +539,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -565,7 +574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2023</v>
       </c>
@@ -579,7 +588,7 @@
         <v>111.31699999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2025</v>
       </c>
@@ -594,7 +603,7 @@
         <v>1513.9111999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2025</v>
       </c>
@@ -608,7 +617,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2029</v>
       </c>
@@ -623,7 +632,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>2031</v>
       </c>
@@ -638,7 +647,7 @@
         <v>3333.9111999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>2033</v>
       </c>
@@ -646,7 +655,7 @@
         <v>6.0499999999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>2037</v>
       </c>
@@ -654,7 +663,7 @@
         <v>6.8900000000000003E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>2045</v>
       </c>
@@ -662,12 +671,12 @@
         <v>5.57E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -679,28 +688,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1907EF-5B5E-4EF3-916B-0442A05E0AFD}">
-  <dimension ref="B1:AZ24"/>
+  <dimension ref="B1:BB24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X13" sqref="X13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>28</v>
       </c>
@@ -728,32 +737,41 @@
       <c r="K1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1">
+      <c r="L1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1">
         <v>2018</v>
       </c>
-      <c r="R1">
+      <c r="T1">
         <v>2019</v>
       </c>
-      <c r="S1">
+      <c r="U1">
         <v>2020</v>
       </c>
-      <c r="T1">
+      <c r="V1">
         <v>2021</v>
       </c>
-      <c r="U1">
+      <c r="W1">
         <v>2022</v>
       </c>
-      <c r="V1">
+      <c r="X1">
         <v>2023</v>
       </c>
-      <c r="W1">
+      <c r="Y1">
         <v>2024</v>
       </c>
-      <c r="X1">
+      <c r="Z1">
         <v>2025</v>
       </c>
     </row>
-    <row r="2" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -782,33 +800,39 @@
         <v>3710</v>
       </c>
       <c r="K2" s="2">
-        <v>5757</v>
-      </c>
-      <c r="Q2" s="2">
+        <v>5397</v>
+      </c>
+      <c r="L2" s="2">
+        <v>3233</v>
+      </c>
+      <c r="M2" s="2">
+        <v>3600</v>
+      </c>
+      <c r="S2" s="2">
         <v>20080</v>
       </c>
-      <c r="R2" s="2">
+      <c r="T2" s="2">
         <v>20230</v>
       </c>
-      <c r="S2" s="2">
+      <c r="U2" s="2">
         <v>19970</v>
       </c>
-      <c r="T2" s="2">
+      <c r="V2" s="2">
         <v>15960</v>
       </c>
-      <c r="U2" s="2">
+      <c r="W2" s="2">
         <v>19430</v>
       </c>
-      <c r="V2" s="2">
+      <c r="X2" s="2">
         <f>SUM(D2:G2)</f>
         <v>17476</v>
       </c>
-      <c r="W2" s="2">
+      <c r="Y2" s="2">
         <f>SUM(H2:K2)</f>
-        <v>16581</v>
-      </c>
-    </row>
-    <row r="3" spans="2:52" x14ac:dyDescent="0.3">
+        <v>16221</v>
+      </c>
+    </row>
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -838,218 +862,236 @@
         <v>2137</v>
       </c>
       <c r="K3" s="2">
-        <v>3737</v>
-      </c>
-      <c r="Q3" s="2">
+        <v>3473</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1834</v>
+      </c>
+      <c r="M3" s="2">
+        <v>2020</v>
+      </c>
+      <c r="S3" s="2">
         <v>12200</v>
       </c>
-      <c r="R3" s="2">
+      <c r="T3" s="2">
         <v>12140</v>
       </c>
-      <c r="S3" s="2">
+      <c r="U3" s="2">
         <v>10170</v>
       </c>
-      <c r="T3" s="2">
+      <c r="V3" s="2">
         <v>11440</v>
       </c>
-      <c r="U3" s="2">
+      <c r="W3" s="2">
         <v>11460</v>
       </c>
-      <c r="V3" s="2">
+      <c r="X3" s="2">
         <f>SUM(D3:G3)</f>
         <v>10498</v>
       </c>
-      <c r="W3" s="2">
+      <c r="Y3" s="2">
         <f>SUM(H3:K3)</f>
-        <v>9925</v>
-      </c>
-    </row>
-    <row r="4" spans="2:52" x14ac:dyDescent="0.3">
+        <v>9661</v>
+      </c>
+    </row>
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="2">
-        <f>C2-C3</f>
+        <f t="shared" ref="C4:N4" si="0">C2-C3</f>
         <v>1575</v>
       </c>
       <c r="D4" s="2">
-        <f>D2-D3</f>
+        <f t="shared" si="0"/>
         <v>1524</v>
       </c>
       <c r="E4" s="2">
-        <f>E2-E3</f>
+        <f t="shared" si="0"/>
         <v>1653</v>
       </c>
       <c r="F4" s="2">
-        <f>F2-F3</f>
+        <f t="shared" si="0"/>
         <v>1705</v>
       </c>
       <c r="G4" s="2">
-        <f>G2-G3</f>
+        <f t="shared" si="0"/>
         <v>2096</v>
       </c>
       <c r="H4" s="2">
-        <f>H2-H3</f>
+        <f t="shared" si="0"/>
         <v>1459</v>
       </c>
       <c r="I4" s="2">
-        <f>I2-I3</f>
+        <f t="shared" si="0"/>
         <v>1604</v>
       </c>
       <c r="J4" s="2">
-        <f>J2-J3</f>
+        <f t="shared" si="0"/>
         <v>1573</v>
       </c>
       <c r="K4" s="2">
-        <f>K2-K3</f>
-        <v>2020</v>
-      </c>
-      <c r="Q4" s="2">
-        <f>Q2-Q3</f>
-        <v>7880</v>
-      </c>
-      <c r="R4" s="2">
-        <f>R2-R3</f>
-        <v>8090</v>
+        <f t="shared" si="0"/>
+        <v>1924</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" si="0"/>
+        <v>1399</v>
+      </c>
+      <c r="M4" s="2">
+        <f t="shared" si="0"/>
+        <v>1580</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="S4" s="2">
         <f>S2-S3</f>
-        <v>9800</v>
+        <v>7880</v>
       </c>
       <c r="T4" s="2">
         <f>T2-T3</f>
-        <v>4520</v>
+        <v>8090</v>
       </c>
       <c r="U4" s="2">
         <f>U2-U3</f>
+        <v>9800</v>
+      </c>
+      <c r="V4" s="2">
+        <f>V2-V3</f>
+        <v>4520</v>
+      </c>
+      <c r="W4" s="2">
+        <f>W2-W3</f>
         <v>7970</v>
       </c>
-      <c r="V4" s="2">
+      <c r="X4" s="2">
         <f>SUM(D4:G4)</f>
         <v>6978</v>
       </c>
-      <c r="W4" s="2">
+      <c r="Y4" s="2">
         <f>SUM(H4:K4)</f>
-        <v>6656</v>
-      </c>
-      <c r="X4">
-        <f>W4*0.97</f>
-        <v>6456.32</v>
-      </c>
-      <c r="Y4">
-        <f t="shared" ref="Y4:AZ4" si="0">X4*0.97</f>
-        <v>6262.6303999999991</v>
+        <v>6560</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="0"/>
-        <v>6074.751487999999</v>
+        <f>Y4*0.97</f>
+        <v>6363.2</v>
       </c>
       <c r="AA4">
-        <f t="shared" si="0"/>
-        <v>5892.5089433599987</v>
+        <f t="shared" ref="AA4:BB4" si="1">Z4*0.97</f>
+        <v>6172.3040000000001</v>
       </c>
       <c r="AB4">
-        <f t="shared" si="0"/>
-        <v>5715.7336750591985</v>
+        <f t="shared" si="1"/>
+        <v>5987.1348799999996</v>
       </c>
       <c r="AC4">
-        <f t="shared" si="0"/>
-        <v>5544.2616648074227</v>
+        <f t="shared" si="1"/>
+        <v>5807.5208335999996</v>
       </c>
       <c r="AD4">
-        <f t="shared" si="0"/>
-        <v>5377.9338148631996</v>
+        <f t="shared" si="1"/>
+        <v>5633.2952085919997</v>
       </c>
       <c r="AE4">
-        <f t="shared" si="0"/>
-        <v>5216.5958004173035</v>
+        <f t="shared" si="1"/>
+        <v>5464.2963523342396</v>
       </c>
       <c r="AF4">
-        <f t="shared" si="0"/>
-        <v>5060.0979264047846</v>
+        <f t="shared" si="1"/>
+        <v>5300.3674617642118</v>
       </c>
       <c r="AG4">
-        <f t="shared" si="0"/>
-        <v>4908.2949886126407</v>
+        <f t="shared" si="1"/>
+        <v>5141.356437911285</v>
       </c>
       <c r="AH4">
-        <f t="shared" si="0"/>
-        <v>4761.0461389542616</v>
+        <f t="shared" si="1"/>
+        <v>4987.1157447739461</v>
       </c>
       <c r="AI4">
-        <f t="shared" si="0"/>
-        <v>4618.2147547856339</v>
+        <f t="shared" si="1"/>
+        <v>4837.5022724307273</v>
       </c>
       <c r="AJ4">
-        <f t="shared" si="0"/>
-        <v>4479.6683121420647</v>
+        <f t="shared" si="1"/>
+        <v>4692.3772042578057</v>
       </c>
       <c r="AK4">
-        <f t="shared" si="0"/>
-        <v>4345.2782627778024</v>
+        <f t="shared" si="1"/>
+        <v>4551.6058881300714</v>
       </c>
       <c r="AL4">
-        <f t="shared" si="0"/>
-        <v>4214.9199148944681</v>
+        <f t="shared" si="1"/>
+        <v>4415.057711486169</v>
       </c>
       <c r="AM4">
-        <f t="shared" si="0"/>
-        <v>4088.4723174476339</v>
+        <f t="shared" si="1"/>
+        <v>4282.605980141584</v>
       </c>
       <c r="AN4">
-        <f t="shared" si="0"/>
-        <v>3965.8181479242048</v>
+        <f t="shared" si="1"/>
+        <v>4154.1278007373367</v>
       </c>
       <c r="AO4">
-        <f t="shared" si="0"/>
-        <v>3846.8436034864785</v>
+        <f t="shared" si="1"/>
+        <v>4029.5039667152164</v>
       </c>
       <c r="AP4">
-        <f t="shared" si="0"/>
-        <v>3731.438295381884</v>
+        <f t="shared" si="1"/>
+        <v>3908.6188477137598</v>
       </c>
       <c r="AQ4">
-        <f t="shared" si="0"/>
-        <v>3619.4951465204276</v>
+        <f t="shared" si="1"/>
+        <v>3791.3602822823468</v>
       </c>
       <c r="AR4">
-        <f t="shared" si="0"/>
-        <v>3510.9102921248145</v>
+        <f t="shared" si="1"/>
+        <v>3677.6194738138761</v>
       </c>
       <c r="AS4">
-        <f t="shared" si="0"/>
-        <v>3405.5829833610701</v>
+        <f t="shared" si="1"/>
+        <v>3567.2908895994597</v>
       </c>
       <c r="AT4">
-        <f t="shared" si="0"/>
-        <v>3303.4154938602378</v>
+        <f t="shared" si="1"/>
+        <v>3460.2721629114758</v>
       </c>
       <c r="AU4">
-        <f t="shared" si="0"/>
-        <v>3204.3130290444306</v>
+        <f t="shared" si="1"/>
+        <v>3356.4639980241313</v>
       </c>
       <c r="AV4">
-        <f t="shared" si="0"/>
-        <v>3108.1836381730977</v>
+        <f t="shared" si="1"/>
+        <v>3255.7700780834075</v>
       </c>
       <c r="AW4">
-        <f t="shared" si="0"/>
-        <v>3014.9381290279048</v>
+        <f t="shared" si="1"/>
+        <v>3158.0969757409052</v>
       </c>
       <c r="AX4">
-        <f t="shared" si="0"/>
-        <v>2924.4899851570676</v>
+        <f t="shared" si="1"/>
+        <v>3063.354066468678</v>
       </c>
       <c r="AY4">
-        <f t="shared" si="0"/>
-        <v>2836.7552856023553</v>
+        <f t="shared" si="1"/>
+        <v>2971.4534444746178</v>
       </c>
       <c r="AZ4">
-        <f t="shared" si="0"/>
-        <v>2751.6526270342847</v>
-      </c>
-    </row>
-    <row r="5" spans="2:52" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>2882.3098411403789</v>
+      </c>
+      <c r="BA4">
+        <f t="shared" si="1"/>
+        <v>2795.8405459061673</v>
+      </c>
+      <c r="BB4">
+        <f t="shared" si="1"/>
+        <v>2711.9653295289822</v>
+      </c>
+    </row>
+    <row r="5" spans="2:54" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1059,15 +1101,15 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
-    </row>
-    <row r="6" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+    </row>
+    <row r="6" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -1096,150 +1138,157 @@
         <v>1291</v>
       </c>
       <c r="K6" s="2">
-        <v>1600</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="Q6" s="2">
+        <f>1539+76</f>
+        <v>1615</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1164</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1212</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="S6" s="2">
         <v>5600</v>
       </c>
-      <c r="R6" s="2">
+      <c r="T6" s="2">
         <v>5710</v>
       </c>
-      <c r="S6" s="2">
+      <c r="U6" s="2">
         <v>4890</v>
       </c>
-      <c r="T6" s="2">
+      <c r="V6" s="2">
         <v>5480</v>
       </c>
-      <c r="U6" s="2">
+      <c r="W6" s="2">
         <v>5590</v>
       </c>
-      <c r="V6" s="2">
+      <c r="X6" s="2">
         <f>SUM(D6:G6)</f>
         <v>5512</v>
       </c>
-      <c r="W6" s="2">
+      <c r="Y6" s="2">
         <f>SUM(H6:K6)</f>
-        <v>5369</v>
-      </c>
-      <c r="X6">
-        <f>W6*0.96</f>
-        <v>5154.24</v>
-      </c>
-      <c r="Y6">
-        <f>X6*0.96</f>
-        <v>4948.0703999999996</v>
+        <v>5384</v>
       </c>
       <c r="Z6">
-        <f t="shared" ref="Z6:AZ6" si="1">Y6*0.96</f>
-        <v>4750.1475839999994</v>
+        <f>Y6*0.96</f>
+        <v>5168.6399999999994</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="1"/>
-        <v>4560.1416806399993</v>
+        <f>Z6*0.96</f>
+        <v>4961.8943999999992</v>
       </c>
       <c r="AB6">
-        <f t="shared" si="1"/>
-        <v>4377.7360134143992</v>
+        <f t="shared" ref="AB6:BB6" si="2">AA6*0.96</f>
+        <v>4763.418623999999</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="1"/>
-        <v>4202.6265728778235</v>
+        <f t="shared" si="2"/>
+        <v>4572.8818790399991</v>
       </c>
       <c r="AD6">
-        <f t="shared" si="1"/>
-        <v>4034.5215099627103</v>
+        <f t="shared" si="2"/>
+        <v>4389.9666038783989</v>
       </c>
       <c r="AE6">
-        <f t="shared" si="1"/>
-        <v>3873.1406495642018</v>
+        <f t="shared" si="2"/>
+        <v>4214.3679397232627</v>
       </c>
       <c r="AF6">
-        <f t="shared" si="1"/>
-        <v>3718.2150235816334</v>
+        <f t="shared" si="2"/>
+        <v>4045.7932221343322</v>
       </c>
       <c r="AG6">
-        <f t="shared" si="1"/>
-        <v>3569.4864226383679</v>
+        <f t="shared" si="2"/>
+        <v>3883.9614932489585</v>
       </c>
       <c r="AH6">
-        <f t="shared" si="1"/>
-        <v>3426.7069657328329</v>
+        <f t="shared" si="2"/>
+        <v>3728.6030335189998</v>
       </c>
       <c r="AI6">
-        <f t="shared" si="1"/>
-        <v>3289.6386871035197</v>
+        <f t="shared" si="2"/>
+        <v>3579.4589121782396</v>
       </c>
       <c r="AJ6">
-        <f t="shared" si="1"/>
-        <v>3158.0531396193787</v>
+        <f t="shared" si="2"/>
+        <v>3436.2805556911098</v>
       </c>
       <c r="AK6">
-        <f t="shared" si="1"/>
-        <v>3031.7310140346035</v>
+        <f t="shared" si="2"/>
+        <v>3298.8293334634654</v>
       </c>
       <c r="AL6">
-        <f t="shared" si="1"/>
-        <v>2910.4617734732192</v>
+        <f t="shared" si="2"/>
+        <v>3166.8761601249266</v>
       </c>
       <c r="AM6">
-        <f t="shared" si="1"/>
-        <v>2794.0433025342904</v>
+        <f t="shared" si="2"/>
+        <v>3040.2011137199293</v>
       </c>
       <c r="AN6">
-        <f t="shared" si="1"/>
-        <v>2682.2815704329187</v>
+        <f t="shared" si="2"/>
+        <v>2918.5930691711319</v>
       </c>
       <c r="AO6">
-        <f t="shared" si="1"/>
-        <v>2574.990307615602</v>
+        <f t="shared" si="2"/>
+        <v>2801.8493464042867</v>
       </c>
       <c r="AP6">
-        <f t="shared" si="1"/>
-        <v>2471.990695310978</v>
+        <f t="shared" si="2"/>
+        <v>2689.7753725481152</v>
       </c>
       <c r="AQ6">
-        <f t="shared" si="1"/>
-        <v>2373.1110674985389</v>
+        <f t="shared" si="2"/>
+        <v>2582.1843576461906</v>
       </c>
       <c r="AR6">
-        <f t="shared" si="1"/>
-        <v>2278.1866247985972</v>
+        <f t="shared" si="2"/>
+        <v>2478.896983340343</v>
       </c>
       <c r="AS6">
-        <f t="shared" si="1"/>
-        <v>2187.059159806653</v>
+        <f t="shared" si="2"/>
+        <v>2379.7411040067291</v>
       </c>
       <c r="AT6">
-        <f t="shared" si="1"/>
-        <v>2099.5767934143869</v>
+        <f t="shared" si="2"/>
+        <v>2284.5514598464597</v>
       </c>
       <c r="AU6">
-        <f t="shared" si="1"/>
-        <v>2015.5937216778113</v>
+        <f t="shared" si="2"/>
+        <v>2193.1694014526011</v>
       </c>
       <c r="AV6">
-        <f t="shared" si="1"/>
-        <v>1934.9699728106989</v>
+        <f t="shared" si="2"/>
+        <v>2105.4426253944971</v>
       </c>
       <c r="AW6">
-        <f t="shared" si="1"/>
-        <v>1857.5711738982709</v>
+        <f t="shared" si="2"/>
+        <v>2021.2249203787171</v>
       </c>
       <c r="AX6">
-        <f t="shared" si="1"/>
-        <v>1783.2683269423401</v>
+        <f t="shared" si="2"/>
+        <v>1940.3759235635684</v>
       </c>
       <c r="AY6">
-        <f t="shared" si="1"/>
-        <v>1711.9375938646465</v>
+        <f t="shared" si="2"/>
+        <v>1862.7608866210257</v>
       </c>
       <c r="AZ6">
-        <f t="shared" si="1"/>
-        <v>1643.4600901100605</v>
-      </c>
-    </row>
-    <row r="7" spans="2:52" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1788.2504511561847</v>
+      </c>
+      <c r="BA6">
+        <f t="shared" si="2"/>
+        <v>1716.7204331099372</v>
+      </c>
+      <c r="BB6">
+        <f t="shared" si="2"/>
+        <v>1648.0516157855395</v>
+      </c>
+    </row>
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -1268,150 +1317,156 @@
         <v>184</v>
       </c>
       <c r="K7" s="2">
-        <v>184</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="Q7" s="2">
+        <v>183</v>
+      </c>
+      <c r="L7" s="2">
+        <v>175</v>
+      </c>
+      <c r="M7" s="2">
+        <v>180</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="S7" s="2">
         <v>964</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>917</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>874</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>838</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>808</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <f>SUM(D7:G7)</f>
         <v>749</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <f>SUM(H7:K7)</f>
-        <v>744</v>
-      </c>
-      <c r="X7">
-        <f>W7*0.96</f>
-        <v>714.24</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" ref="Y7:AZ7" si="2">X7*0.96</f>
-        <v>685.67039999999997</v>
+        <v>743</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="2"/>
-        <v>658.24358399999994</v>
+        <f>Y7*0.96</f>
+        <v>713.28</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="2"/>
-        <v>631.91384063999988</v>
+        <f t="shared" ref="AA7:BB7" si="3">Z7*0.96</f>
+        <v>684.74879999999996</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="2"/>
-        <v>606.63728701439982</v>
+        <f t="shared" si="3"/>
+        <v>657.35884799999997</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="2"/>
-        <v>582.37179553382384</v>
+        <f t="shared" si="3"/>
+        <v>631.06449407999992</v>
       </c>
       <c r="AD7">
-        <f t="shared" si="2"/>
-        <v>559.07692371247083</v>
+        <f t="shared" si="3"/>
+        <v>605.82191431679985</v>
       </c>
       <c r="AE7">
-        <f t="shared" si="2"/>
-        <v>536.71384676397201</v>
+        <f t="shared" si="3"/>
+        <v>581.58903774412784</v>
       </c>
       <c r="AF7">
-        <f t="shared" si="2"/>
-        <v>515.24529289341308</v>
+        <f t="shared" si="3"/>
+        <v>558.32547623436267</v>
       </c>
       <c r="AG7">
-        <f t="shared" si="2"/>
-        <v>494.63548117767652</v>
+        <f t="shared" si="3"/>
+        <v>535.9924571849881</v>
       </c>
       <c r="AH7">
-        <f t="shared" si="2"/>
-        <v>474.85006193056944</v>
+        <f t="shared" si="3"/>
+        <v>514.55275889758855</v>
       </c>
       <c r="AI7">
-        <f t="shared" si="2"/>
-        <v>455.85605945334663</v>
+        <f t="shared" si="3"/>
+        <v>493.97064854168497</v>
       </c>
       <c r="AJ7">
-        <f t="shared" si="2"/>
-        <v>437.62181707521273</v>
+        <f t="shared" si="3"/>
+        <v>474.21182260001757</v>
       </c>
       <c r="AK7">
-        <f t="shared" si="2"/>
-        <v>420.11694439220423</v>
+        <f t="shared" si="3"/>
+        <v>455.24334969601688</v>
       </c>
       <c r="AL7">
-        <f t="shared" si="2"/>
-        <v>403.31226661651607</v>
+        <f t="shared" si="3"/>
+        <v>437.03361570817617</v>
       </c>
       <c r="AM7">
-        <f t="shared" si="2"/>
-        <v>387.17977595185539</v>
+        <f t="shared" si="3"/>
+        <v>419.55227107984911</v>
       </c>
       <c r="AN7">
-        <f t="shared" si="2"/>
-        <v>371.69258491378116</v>
+        <f t="shared" si="3"/>
+        <v>402.77018023665511</v>
       </c>
       <c r="AO7">
-        <f t="shared" si="2"/>
-        <v>356.82488151722993</v>
+        <f t="shared" si="3"/>
+        <v>386.65937302718891</v>
       </c>
       <c r="AP7">
-        <f t="shared" si="2"/>
-        <v>342.55188625654074</v>
+        <f t="shared" si="3"/>
+        <v>371.19299810610136</v>
       </c>
       <c r="AQ7">
-        <f t="shared" si="2"/>
-        <v>328.84981080627909</v>
+        <f t="shared" si="3"/>
+        <v>356.34527818185728</v>
       </c>
       <c r="AR7">
-        <f t="shared" si="2"/>
-        <v>315.69581837402791</v>
+        <f t="shared" si="3"/>
+        <v>342.09146705458295</v>
       </c>
       <c r="AS7">
-        <f t="shared" si="2"/>
-        <v>303.06798563906676</v>
+        <f t="shared" si="3"/>
+        <v>328.40780837239964</v>
       </c>
       <c r="AT7">
-        <f t="shared" si="2"/>
-        <v>290.94526621350406</v>
+        <f t="shared" si="3"/>
+        <v>315.27149603750365</v>
       </c>
       <c r="AU7">
-        <f t="shared" si="2"/>
-        <v>279.3074555649639</v>
+        <f t="shared" si="3"/>
+        <v>302.66063619600351</v>
       </c>
       <c r="AV7">
-        <f t="shared" si="2"/>
-        <v>268.13515734236535</v>
+        <f t="shared" si="3"/>
+        <v>290.55421074816337</v>
       </c>
       <c r="AW7">
-        <f t="shared" si="2"/>
-        <v>257.40975104867073</v>
+        <f t="shared" si="3"/>
+        <v>278.93204231823682</v>
       </c>
       <c r="AX7">
-        <f t="shared" si="2"/>
-        <v>247.11336100672389</v>
+        <f t="shared" si="3"/>
+        <v>267.77476062550733</v>
       </c>
       <c r="AY7">
-        <f t="shared" si="2"/>
-        <v>237.22882656645493</v>
+        <f t="shared" si="3"/>
+        <v>257.063770200487</v>
       </c>
       <c r="AZ7">
-        <f t="shared" si="2"/>
-        <v>227.73967350379672</v>
-      </c>
-    </row>
-    <row r="8" spans="2:52" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>246.78121939246751</v>
+      </c>
+      <c r="BA7">
+        <f t="shared" si="3"/>
+        <v>236.90997061676879</v>
+      </c>
+      <c r="BB7">
+        <f t="shared" si="3"/>
+        <v>227.43357179209804</v>
+      </c>
+    </row>
+    <row r="8" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -1423,179 +1478,191 @@
         <v>98</v>
       </c>
       <c r="E8" s="2">
-        <f>E2-E3-E6-E7</f>
+        <f t="shared" ref="E8:N8" si="4">E2-E3-E6-E7</f>
         <v>163</v>
       </c>
       <c r="F8" s="2">
-        <f>F2-F3-F6-F7</f>
+        <f t="shared" si="4"/>
         <v>157</v>
       </c>
       <c r="G8" s="2">
-        <f>G2-G3-G6-G7</f>
+        <f t="shared" si="4"/>
         <v>299</v>
       </c>
       <c r="H8" s="2">
-        <f>H2-H3-H6-H7</f>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="I8" s="2">
-        <f>I2-I3-I6-I7</f>
+        <f t="shared" si="4"/>
         <v>166</v>
       </c>
       <c r="J8" s="2">
-        <f>J2-J3-J6-J7</f>
+        <f t="shared" si="4"/>
         <v>98</v>
       </c>
       <c r="K8" s="2">
-        <f>K2-K3-K6-K7</f>
-        <v>236</v>
-      </c>
-      <c r="Q8" s="2">
-        <f>Q2-Q3-Q6-Q7</f>
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="4"/>
+        <v>188</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <f t="shared" ref="S8:Y8" si="5">S2-S3-S6-S7</f>
         <v>1316</v>
       </c>
-      <c r="R8" s="2">
-        <f>R2-R3-R6-R7</f>
+      <c r="T8" s="2">
+        <f t="shared" si="5"/>
         <v>1463</v>
       </c>
-      <c r="S8" s="2">
-        <f>S2-S3-S6-S7</f>
+      <c r="U8" s="2">
+        <f t="shared" si="5"/>
         <v>4036</v>
       </c>
-      <c r="T8" s="2">
-        <f>T2-T3-T6-T7</f>
+      <c r="V8" s="2">
+        <f t="shared" si="5"/>
         <v>-1798</v>
       </c>
-      <c r="U8" s="2">
-        <f>U2-U3-U6-U7</f>
+      <c r="W8" s="2">
+        <f t="shared" si="5"/>
         <v>1572</v>
       </c>
-      <c r="V8" s="2">
-        <f>V2-V3-V6-V7</f>
+      <c r="X8" s="2">
+        <f t="shared" si="5"/>
         <v>717</v>
       </c>
-      <c r="W8" s="2">
-        <f>W2-W3-W6-W7</f>
-        <v>543</v>
-      </c>
-      <c r="X8" s="2">
-        <f>X4-X6-X7</f>
-        <v>587.83999999999992</v>
-      </c>
       <c r="Y8" s="2">
-        <f t="shared" ref="Y8:AZ8" si="3">Y4-Y6-Y7</f>
-        <v>628.88959999999952</v>
+        <f t="shared" si="5"/>
+        <v>433</v>
       </c>
       <c r="Z8" s="2">
-        <f t="shared" si="3"/>
-        <v>666.36031999999966</v>
+        <f>Z4-Z6-Z7</f>
+        <v>481.28000000000043</v>
       </c>
       <c r="AA8" s="2">
-        <f t="shared" si="3"/>
-        <v>700.45342207999954</v>
+        <f t="shared" ref="AA8:BB8" si="6">AA4-AA6-AA7</f>
+        <v>525.6608000000009</v>
       </c>
       <c r="AB8" s="2">
-        <f t="shared" si="3"/>
-        <v>731.36037463039952</v>
+        <f t="shared" si="6"/>
+        <v>566.35740800000065</v>
       </c>
       <c r="AC8" s="2">
-        <f t="shared" si="3"/>
-        <v>759.26329639577534</v>
+        <f t="shared" si="6"/>
+        <v>603.57446048000054</v>
       </c>
       <c r="AD8" s="2">
-        <f t="shared" si="3"/>
-        <v>784.33538118801846</v>
+        <f t="shared" si="6"/>
+        <v>637.50669039680088</v>
       </c>
       <c r="AE8" s="2">
-        <f t="shared" si="3"/>
-        <v>806.7413040891297</v>
+        <f t="shared" si="6"/>
+        <v>668.33937486684908</v>
       </c>
       <c r="AF8" s="2">
-        <f t="shared" si="3"/>
-        <v>826.63760992973812</v>
+        <f t="shared" si="6"/>
+        <v>696.24876339551702</v>
       </c>
       <c r="AG8" s="2">
-        <f t="shared" si="3"/>
-        <v>844.1730847965963</v>
+        <f t="shared" si="6"/>
+        <v>721.40248747733835</v>
       </c>
       <c r="AH8" s="2">
-        <f t="shared" si="3"/>
-        <v>859.48911129085923</v>
+        <f t="shared" si="6"/>
+        <v>743.95995235735768</v>
       </c>
       <c r="AI8" s="2">
-        <f t="shared" si="3"/>
-        <v>872.72000822876748</v>
+        <f t="shared" si="6"/>
+        <v>764.07271171080265</v>
       </c>
       <c r="AJ8" s="2">
-        <f t="shared" si="3"/>
-        <v>883.99335544747328</v>
+        <f t="shared" si="6"/>
+        <v>781.88482596667836</v>
       </c>
       <c r="AK8" s="2">
-        <f t="shared" si="3"/>
-        <v>893.43030435099467</v>
+        <f t="shared" si="6"/>
+        <v>797.53320497058917</v>
       </c>
       <c r="AL8" s="2">
-        <f t="shared" si="3"/>
-        <v>901.14587480473278</v>
+        <f t="shared" si="6"/>
+        <v>811.14793565306616</v>
       </c>
       <c r="AM8" s="2">
-        <f t="shared" si="3"/>
-        <v>907.24923896148812</v>
+        <f t="shared" si="6"/>
+        <v>822.85259534180568</v>
       </c>
       <c r="AN8" s="2">
-        <f t="shared" si="3"/>
-        <v>911.84399257750499</v>
+        <f t="shared" si="6"/>
+        <v>832.7645513295497</v>
       </c>
       <c r="AO8" s="2">
-        <f t="shared" si="3"/>
-        <v>915.02841435364667</v>
+        <f t="shared" si="6"/>
+        <v>840.99524728374081</v>
       </c>
       <c r="AP8" s="2">
-        <f t="shared" si="3"/>
-        <v>916.89571381436531</v>
+        <f t="shared" si="6"/>
+        <v>847.65047705954316</v>
       </c>
       <c r="AQ8" s="2">
-        <f t="shared" si="3"/>
-        <v>917.5342682156097</v>
+        <f t="shared" si="6"/>
+        <v>852.83064645429886</v>
       </c>
       <c r="AR8" s="2">
-        <f t="shared" si="3"/>
-        <v>917.0278489521894</v>
+        <f t="shared" si="6"/>
+        <v>856.63102341895012</v>
       </c>
       <c r="AS8" s="2">
-        <f t="shared" si="3"/>
-        <v>915.45583791535023</v>
+        <f t="shared" si="6"/>
+        <v>859.141977220331</v>
       </c>
       <c r="AT8" s="2">
-        <f t="shared" si="3"/>
-        <v>912.89343423234686</v>
+        <f t="shared" si="6"/>
+        <v>860.44920702751244</v>
       </c>
       <c r="AU8" s="2">
-        <f t="shared" si="3"/>
-        <v>909.4118518016553</v>
+        <f t="shared" si="6"/>
+        <v>860.63396037552684</v>
       </c>
       <c r="AV8" s="2">
-        <f t="shared" si="3"/>
-        <v>905.0785080200335</v>
+        <f t="shared" si="6"/>
+        <v>859.77324194074708</v>
       </c>
       <c r="AW8" s="2">
-        <f t="shared" si="3"/>
-        <v>899.95720408096315</v>
+        <f t="shared" si="6"/>
+        <v>857.94001304395124</v>
       </c>
       <c r="AX8" s="2">
-        <f t="shared" si="3"/>
-        <v>894.10829720800371</v>
+        <f t="shared" si="6"/>
+        <v>855.20338227960224</v>
       </c>
       <c r="AY8" s="2">
-        <f t="shared" si="3"/>
-        <v>887.58886517125393</v>
+        <f t="shared" si="6"/>
+        <v>851.62878765310506</v>
       </c>
       <c r="AZ8" s="2">
-        <f t="shared" si="3"/>
-        <v>880.45286342042755</v>
-      </c>
-    </row>
-    <row r="9" spans="2:52" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>847.27817059172673</v>
+      </c>
+      <c r="BA8" s="2">
+        <f t="shared" si="6"/>
+        <v>842.2101421794614</v>
+      </c>
+      <c r="BB8" s="2">
+        <f t="shared" si="6"/>
+        <v>836.48014195134465</v>
+      </c>
+    </row>
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -1624,149 +1691,155 @@
         <v>76</v>
       </c>
       <c r="K9" s="2">
-        <v>85</v>
-      </c>
-      <c r="Q9" s="2">
+        <v>74</v>
+      </c>
+      <c r="L9" s="2">
+        <v>76</v>
+      </c>
+      <c r="M9" s="2">
+        <v>76</v>
+      </c>
+      <c r="S9" s="2">
         <v>256</v>
       </c>
-      <c r="R9" s="2">
+      <c r="T9" s="2">
         <v>207</v>
       </c>
-      <c r="S9" s="2">
+      <c r="U9" s="2">
         <v>284</v>
       </c>
-      <c r="T9" s="2">
+      <c r="V9" s="2">
         <v>260</v>
       </c>
-      <c r="U9" s="2">
+      <c r="W9" s="2">
         <v>304</v>
       </c>
-      <c r="V9" s="2">
+      <c r="X9" s="2">
         <f>SUM(D9:G9)</f>
         <v>344</v>
       </c>
-      <c r="W9" s="2">
+      <c r="Y9" s="2">
         <f>SUM(H9:K9)</f>
-        <v>330</v>
-      </c>
-      <c r="X9">
-        <f>W9*1.01</f>
-        <v>333.3</v>
-      </c>
-      <c r="Y9">
-        <f t="shared" ref="Y9:AZ9" si="4">X9*1.01</f>
-        <v>336.63300000000004</v>
+        <v>319</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="4"/>
-        <v>339.99933000000004</v>
+        <f>Y9*1.01</f>
+        <v>322.19</v>
       </c>
       <c r="AA9">
-        <f t="shared" si="4"/>
-        <v>343.39932330000005</v>
+        <f t="shared" ref="AA9:BB9" si="7">Z9*1.01</f>
+        <v>325.4119</v>
       </c>
       <c r="AB9">
-        <f t="shared" si="4"/>
-        <v>346.83331653300007</v>
+        <f t="shared" si="7"/>
+        <v>328.66601900000001</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="4"/>
-        <v>350.3016496983301</v>
+        <f t="shared" si="7"/>
+        <v>331.95267919000003</v>
       </c>
       <c r="AD9">
-        <f t="shared" si="4"/>
-        <v>353.80466619531342</v>
+        <f t="shared" si="7"/>
+        <v>335.27220598190002</v>
       </c>
       <c r="AE9">
-        <f t="shared" si="4"/>
-        <v>357.34271285726658</v>
+        <f t="shared" si="7"/>
+        <v>338.62492804171904</v>
       </c>
       <c r="AF9">
-        <f t="shared" si="4"/>
-        <v>360.91613998583927</v>
+        <f t="shared" si="7"/>
+        <v>342.01117732213623</v>
       </c>
       <c r="AG9">
-        <f t="shared" si="4"/>
-        <v>364.52530138569767</v>
+        <f t="shared" si="7"/>
+        <v>345.43128909535761</v>
       </c>
       <c r="AH9">
-        <f t="shared" si="4"/>
-        <v>368.17055439955465</v>
+        <f t="shared" si="7"/>
+        <v>348.8856019863112</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="4"/>
-        <v>371.85225994355022</v>
+        <f t="shared" si="7"/>
+        <v>352.37445800617434</v>
       </c>
       <c r="AJ9">
-        <f t="shared" si="4"/>
-        <v>375.57078254298574</v>
+        <f t="shared" si="7"/>
+        <v>355.8982025862361</v>
       </c>
       <c r="AK9">
-        <f t="shared" si="4"/>
-        <v>379.32649036841559</v>
+        <f t="shared" si="7"/>
+        <v>359.45718461209844</v>
       </c>
       <c r="AL9">
-        <f t="shared" si="4"/>
-        <v>383.11975527209972</v>
+        <f t="shared" si="7"/>
+        <v>363.05175645821942</v>
       </c>
       <c r="AM9">
-        <f t="shared" si="4"/>
-        <v>386.95095282482072</v>
+        <f t="shared" si="7"/>
+        <v>366.68227402280161</v>
       </c>
       <c r="AN9">
-        <f t="shared" si="4"/>
-        <v>390.82046235306893</v>
+        <f t="shared" si="7"/>
+        <v>370.34909676302965</v>
       </c>
       <c r="AO9">
-        <f t="shared" si="4"/>
-        <v>394.72866697659964</v>
+        <f t="shared" si="7"/>
+        <v>374.05258773065992</v>
       </c>
       <c r="AP9">
-        <f t="shared" si="4"/>
-        <v>398.67595364636566</v>
+        <f t="shared" si="7"/>
+        <v>377.79311360796652</v>
       </c>
       <c r="AQ9">
-        <f t="shared" si="4"/>
-        <v>402.66271318282929</v>
+        <f t="shared" si="7"/>
+        <v>381.57104474404616</v>
       </c>
       <c r="AR9">
-        <f t="shared" si="4"/>
-        <v>406.68934031465761</v>
+        <f t="shared" si="7"/>
+        <v>385.3867551914866</v>
       </c>
       <c r="AS9">
-        <f t="shared" si="4"/>
-        <v>410.75623371780421</v>
+        <f t="shared" si="7"/>
+        <v>389.24062274340145</v>
       </c>
       <c r="AT9">
-        <f t="shared" si="4"/>
-        <v>414.86379605498223</v>
+        <f t="shared" si="7"/>
+        <v>393.13302897083548</v>
       </c>
       <c r="AU9">
-        <f t="shared" si="4"/>
-        <v>419.01243401553205</v>
+        <f t="shared" si="7"/>
+        <v>397.06435926054382</v>
       </c>
       <c r="AV9">
-        <f t="shared" si="4"/>
-        <v>423.20255835568736</v>
+        <f t="shared" si="7"/>
+        <v>401.03500285314925</v>
       </c>
       <c r="AW9">
-        <f t="shared" si="4"/>
-        <v>427.43458393924425</v>
+        <f t="shared" si="7"/>
+        <v>405.04535288168074</v>
       </c>
       <c r="AX9">
-        <f t="shared" si="4"/>
-        <v>431.70892977863667</v>
+        <f t="shared" si="7"/>
+        <v>409.09580641049757</v>
       </c>
       <c r="AY9">
-        <f t="shared" si="4"/>
-        <v>436.02601907642304</v>
+        <f t="shared" si="7"/>
+        <v>413.18676447460257</v>
       </c>
       <c r="AZ9">
-        <f t="shared" si="4"/>
-        <v>440.38627926718726</v>
-      </c>
-    </row>
-    <row r="10" spans="2:52" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>417.31863211934859</v>
+      </c>
+      <c r="BA9">
+        <f t="shared" si="7"/>
+        <v>421.49181844054209</v>
+      </c>
+      <c r="BB9">
+        <f t="shared" si="7"/>
+        <v>425.7067366249475</v>
+      </c>
+    </row>
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>27</v>
       </c>
@@ -1795,227 +1868,245 @@
         <v>0</v>
       </c>
       <c r="K10" s="2">
-        <v>27</v>
-      </c>
-      <c r="Q10" s="2">
+        <v>4</v>
+      </c>
+      <c r="L10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M10" s="2">
+        <v>14</v>
+      </c>
+      <c r="S10" s="2">
         <v>241</v>
       </c>
-      <c r="R10" s="2">
+      <c r="T10" s="2">
         <v>210</v>
       </c>
-      <c r="S10" s="2">
+      <c r="U10" s="2">
         <v>-383</v>
       </c>
-      <c r="T10" s="2">
+      <c r="V10" s="2">
         <v>281</v>
       </c>
-      <c r="U10" s="2">
+      <c r="W10" s="2">
         <v>-39</v>
       </c>
-      <c r="V10" s="2">
+      <c r="X10" s="2">
         <f>SUM(D10:G10)</f>
         <v>56</v>
       </c>
-      <c r="W10" s="2">
+      <c r="Y10" s="2">
         <f>SUM(H10:K10)</f>
-        <v>14</v>
-      </c>
-      <c r="X10" s="2"/>
-      <c r="AZ10">
+        <v>-9</v>
+      </c>
+      <c r="Z10" s="2"/>
+      <c r="BB10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="2">
-        <f>C8-C9-C10</f>
+        <f t="shared" ref="C11:N11" si="8">C8-C9-C10</f>
         <v>-273</v>
       </c>
       <c r="D11" s="2">
-        <f>D8-D9-D10</f>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="E11" s="2">
-        <f>E8-E9-E10</f>
+        <f t="shared" si="8"/>
         <v>58</v>
       </c>
       <c r="F11" s="2">
-        <f>F8-F9-F10</f>
+        <f t="shared" si="8"/>
         <v>59</v>
       </c>
       <c r="G11" s="2">
-        <f>G8-G9-G10</f>
+        <f t="shared" si="8"/>
         <v>186</v>
       </c>
       <c r="H11" s="2">
-        <f>H8-H9-H10</f>
+        <f t="shared" si="8"/>
         <v>-13</v>
       </c>
       <c r="I11" s="2">
-        <f>I8-I9-I10</f>
+        <f t="shared" si="8"/>
         <v>66</v>
       </c>
       <c r="J11" s="2">
-        <f>J8-J9-J10</f>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="K11" s="2">
-        <f>K8-K9-K10</f>
-        <v>124</v>
-      </c>
-      <c r="Q11" s="2">
-        <f>Q8-Q9-Q10</f>
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="8"/>
+        <v>-15</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="8"/>
+        <v>98</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
+        <f t="shared" ref="S11:AB11" si="9">S8-S9-S10</f>
         <v>819</v>
       </c>
-      <c r="R11" s="2">
-        <f>R8-R9-R10</f>
+      <c r="T11" s="2">
+        <f t="shared" si="9"/>
         <v>1046</v>
       </c>
-      <c r="S11" s="2">
-        <f>S8-S9-S10</f>
+      <c r="U11" s="2">
+        <f t="shared" si="9"/>
         <v>4135</v>
       </c>
-      <c r="T11" s="2">
-        <f>T8-T9-T10</f>
+      <c r="V11" s="2">
+        <f t="shared" si="9"/>
         <v>-2339</v>
       </c>
-      <c r="U11" s="2">
-        <f>U8-U9-U10</f>
+      <c r="W11" s="2">
+        <f t="shared" si="9"/>
         <v>1307</v>
       </c>
-      <c r="V11" s="2">
-        <f>V8-V9-V10</f>
+      <c r="X11" s="2">
+        <f t="shared" si="9"/>
         <v>317</v>
       </c>
-      <c r="W11" s="2">
-        <f>W8-W9-W10</f>
-        <v>199</v>
-      </c>
-      <c r="X11" s="2">
-        <f>X8-X9-X10</f>
-        <v>254.53999999999991</v>
-      </c>
       <c r="Y11" s="2">
-        <f>Y8-Y9-Y10</f>
-        <v>292.25659999999948</v>
+        <f t="shared" si="9"/>
+        <v>123</v>
       </c>
       <c r="Z11" s="2">
-        <f>Z8-Z9-Z10</f>
-        <v>326.36098999999962</v>
+        <f t="shared" si="9"/>
+        <v>159.09000000000043</v>
       </c>
       <c r="AA11" s="2">
-        <f t="shared" ref="AA11:AZ11" si="5">AA8-AA9-AA10</f>
-        <v>357.05409877999949</v>
+        <f t="shared" si="9"/>
+        <v>200.2489000000009</v>
       </c>
       <c r="AB11" s="2">
-        <f t="shared" si="5"/>
-        <v>384.52705809739945</v>
+        <f t="shared" si="9"/>
+        <v>237.69138900000064</v>
       </c>
       <c r="AC11" s="2">
-        <f t="shared" si="5"/>
-        <v>408.96164669744525</v>
+        <f t="shared" ref="AC11:BB11" si="10">AC8-AC9-AC10</f>
+        <v>271.62178129000051</v>
       </c>
       <c r="AD11" s="2">
-        <f t="shared" si="5"/>
-        <v>430.53071499270504</v>
+        <f t="shared" si="10"/>
+        <v>302.23448441490086</v>
       </c>
       <c r="AE11" s="2">
-        <f t="shared" si="5"/>
-        <v>449.39859123186312</v>
+        <f t="shared" si="10"/>
+        <v>329.71444682513004</v>
       </c>
       <c r="AF11" s="2">
-        <f t="shared" si="5"/>
-        <v>465.72146994389885</v>
+        <f t="shared" si="10"/>
+        <v>354.23758607338078</v>
       </c>
       <c r="AG11" s="2">
-        <f t="shared" si="5"/>
-        <v>479.64778341089863</v>
+        <f t="shared" si="10"/>
+        <v>375.97119838198074</v>
       </c>
       <c r="AH11" s="2">
-        <f t="shared" si="5"/>
-        <v>491.31855689130458</v>
+        <f t="shared" si="10"/>
+        <v>395.07435037104648</v>
       </c>
       <c r="AI11" s="2">
-        <f t="shared" si="5"/>
-        <v>500.86774828521726</v>
+        <f t="shared" si="10"/>
+        <v>411.69825370462831</v>
       </c>
       <c r="AJ11" s="2">
-        <f t="shared" si="5"/>
-        <v>508.42257290448754</v>
+        <f t="shared" si="10"/>
+        <v>425.98662338044227</v>
       </c>
       <c r="AK11" s="2">
-        <f t="shared" si="5"/>
-        <v>514.10381398257914</v>
+        <f t="shared" si="10"/>
+        <v>438.07602035849072</v>
       </c>
       <c r="AL11" s="2">
-        <f t="shared" si="5"/>
-        <v>518.02611953263306</v>
+        <f t="shared" si="10"/>
+        <v>448.09617919484674</v>
       </c>
       <c r="AM11" s="2">
-        <f t="shared" si="5"/>
-        <v>520.29828613666746</v>
+        <f t="shared" si="10"/>
+        <v>456.17032131900407</v>
       </c>
       <c r="AN11" s="2">
-        <f t="shared" si="5"/>
-        <v>521.02353022443606</v>
+        <f t="shared" si="10"/>
+        <v>462.41545456652005</v>
       </c>
       <c r="AO11" s="2">
-        <f t="shared" si="5"/>
-        <v>520.29974737704697</v>
+        <f t="shared" si="10"/>
+        <v>466.94265955308089</v>
       </c>
       <c r="AP11" s="2">
-        <f t="shared" si="5"/>
-        <v>518.21976016799965</v>
+        <f t="shared" si="10"/>
+        <v>469.85736345157665</v>
       </c>
       <c r="AQ11" s="2">
-        <f t="shared" si="5"/>
-        <v>514.87155503278041</v>
+        <f t="shared" si="10"/>
+        <v>471.2596017102527</v>
       </c>
       <c r="AR11" s="2">
-        <f t="shared" si="5"/>
-        <v>510.33850863753179</v>
+        <f t="shared" si="10"/>
+        <v>471.24426822746352</v>
       </c>
       <c r="AS11" s="2">
-        <f t="shared" si="5"/>
-        <v>504.69960419754602</v>
+        <f t="shared" si="10"/>
+        <v>469.90135447692955</v>
       </c>
       <c r="AT11" s="2">
-        <f t="shared" si="5"/>
-        <v>498.02963817736463</v>
+        <f t="shared" si="10"/>
+        <v>467.31617805667696</v>
       </c>
       <c r="AU11" s="2">
-        <f t="shared" si="5"/>
-        <v>490.39941778612325</v>
+        <f t="shared" si="10"/>
+        <v>463.56960111498302</v>
       </c>
       <c r="AV11" s="2">
-        <f t="shared" si="5"/>
-        <v>481.87594966434614</v>
+        <f t="shared" si="10"/>
+        <v>458.73823908759783</v>
       </c>
       <c r="AW11" s="2">
-        <f t="shared" si="5"/>
-        <v>472.5226201417189</v>
+        <f t="shared" si="10"/>
+        <v>452.8946601622705</v>
       </c>
       <c r="AX11" s="2">
-        <f t="shared" si="5"/>
-        <v>462.39936742936703</v>
+        <f t="shared" si="10"/>
+        <v>446.10757586910466</v>
       </c>
       <c r="AY11" s="2">
-        <f t="shared" si="5"/>
-        <v>451.56284609483089</v>
+        <f t="shared" si="10"/>
+        <v>438.4420231785025</v>
       </c>
       <c r="AZ11" s="2">
-        <f t="shared" si="5"/>
-        <v>439.06658415324029</v>
-      </c>
-    </row>
-    <row r="12" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="AZ12">
+        <f t="shared" si="10"/>
+        <v>429.95953847237814</v>
+      </c>
+      <c r="BA11" s="2">
+        <f t="shared" si="10"/>
+        <v>420.71832373891931</v>
+      </c>
+      <c r="BB11" s="2">
+        <f t="shared" si="10"/>
+        <v>409.77340532639715</v>
+      </c>
+    </row>
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BB12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -2028,234 +2119,270 @@
         <v>0.42677121254550549</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" ref="E13:K13" si="6">E4/E2</f>
+        <f t="shared" ref="E13:K13" si="11">E4/E2</f>
         <v>0.42439024390243901</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.42057227429699062</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.3519140362659503</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.43140153755174454</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.42979635584137194</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.42398921832884096</v>
       </c>
       <c r="K13" s="3">
-        <f t="shared" si="6"/>
-        <v>0.35087719298245612</v>
-      </c>
-      <c r="Q13" s="3">
-        <f>Q4/Q2</f>
+        <f t="shared" si="11"/>
+        <v>0.35649434871224756</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" ref="L13:N13" si="12">L4/L2</f>
+        <v>0.43272502319826789</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" si="12"/>
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="N13" s="3" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S13" s="3">
+        <f t="shared" ref="S13:Y13" si="13">S4/S2</f>
         <v>0.39243027888446214</v>
       </c>
-      <c r="R13" s="3">
-        <f>R4/R2</f>
+      <c r="T13" s="3">
+        <f t="shared" si="13"/>
         <v>0.39990113692535839</v>
       </c>
-      <c r="S13" s="3">
-        <f>S4/S2</f>
+      <c r="U13" s="3">
+        <f t="shared" si="13"/>
         <v>0.49073610415623437</v>
       </c>
-      <c r="T13" s="3">
-        <f>T4/T2</f>
+      <c r="V13" s="3">
+        <f t="shared" si="13"/>
         <v>0.2832080200501253</v>
       </c>
-      <c r="U13" s="3">
-        <f>U4/U2</f>
+      <c r="W13" s="3">
+        <f t="shared" si="13"/>
         <v>0.41019042717447246</v>
       </c>
-      <c r="V13" s="3">
-        <f>V4/V2</f>
+      <c r="X13" s="3">
+        <f t="shared" si="13"/>
         <v>0.39929045548180364</v>
       </c>
-      <c r="W13" s="3">
-        <f>W4/W2</f>
-        <v>0.40142331584343527</v>
-      </c>
-      <c r="X13" s="3"/>
-      <c r="AZ13">
+      <c r="Y13" s="3">
+        <f t="shared" si="13"/>
+        <v>0.40441403119413105</v>
+      </c>
+      <c r="Z13" s="3"/>
+      <c r="BB13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="3">
-        <f>D2/C2-1</f>
+        <f t="shared" ref="D14:K14" si="14">D2/C2-1</f>
         <v>-0.40671207841834189</v>
       </c>
       <c r="E14" s="3">
-        <f>E2/D2-1</f>
+        <f t="shared" si="14"/>
         <v>9.073088770652471E-2</v>
       </c>
       <c r="F14" s="3">
-        <f>F2/E2-1</f>
+        <f t="shared" si="14"/>
         <v>4.0821566110397889E-2</v>
       </c>
       <c r="G14" s="3">
-        <f>G2/F2-1</f>
+        <f t="shared" si="14"/>
         <v>0.46916625555007396</v>
       </c>
       <c r="H14" s="3">
-        <f>H2/G2-1</f>
+        <f t="shared" si="14"/>
         <v>-0.43216924110141031</v>
       </c>
       <c r="I14" s="3">
-        <f>I2/H2-1</f>
+        <f t="shared" si="14"/>
         <v>0.10348905972797162</v>
       </c>
       <c r="J14" s="3">
-        <f>J2/I2-1</f>
+        <f t="shared" si="14"/>
         <v>-5.8949624866023731E-3</v>
       </c>
       <c r="K14" s="3">
-        <f>K2/J2-1</f>
-        <v>0.55175202156334224</v>
-      </c>
-      <c r="AZ14">
+        <f t="shared" si="14"/>
+        <v>0.45471698113207548</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" ref="L14:N14" si="15">L2/K2-1</f>
+        <v>-0.40096349823976285</v>
+      </c>
+      <c r="M14" s="3">
+        <f t="shared" si="15"/>
+        <v>0.11351685740798012</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="BB14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="3">
-        <f>C11/C2</f>
+        <f t="shared" ref="C15:K15" si="16">C11/C2</f>
         <v>-4.5356371490280781E-2</v>
       </c>
       <c r="D15" s="3">
-        <f>D11/D2</f>
+        <f t="shared" si="16"/>
         <v>3.9204704564547747E-3</v>
       </c>
       <c r="E15" s="3">
-        <f>E11/E2</f>
+        <f t="shared" si="16"/>
         <v>1.4890885750962772E-2</v>
       </c>
       <c r="F15" s="3">
-        <f>F11/F2</f>
+        <f t="shared" si="16"/>
         <v>1.4553527380365071E-2</v>
       </c>
       <c r="G15" s="3">
-        <f>G11/G2</f>
+        <f t="shared" si="16"/>
         <v>3.1229012760241773E-2</v>
       </c>
       <c r="H15" s="3">
-        <f>H11/H2</f>
+        <f t="shared" si="16"/>
         <v>-3.84387936132466E-3</v>
       </c>
       <c r="I15" s="3">
-        <f>I11/I2</f>
+        <f t="shared" si="16"/>
         <v>1.7684887459807074E-2</v>
       </c>
       <c r="J15" s="3">
-        <f>J11/J2</f>
+        <f t="shared" si="16"/>
         <v>5.9299191374663071E-3</v>
       </c>
       <c r="K15" s="3">
-        <f>K11/K2</f>
-        <v>2.1538996004863645E-2</v>
-      </c>
-      <c r="Q15" s="3">
-        <f>Q11/Q2</f>
+        <f t="shared" si="16"/>
+        <v>8.8938299055030569E-3</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" ref="L15:N15" si="17">L11/L2</f>
+        <v>-4.6396535725332505E-3</v>
+      </c>
+      <c r="M15" s="3">
+        <f t="shared" si="17"/>
+        <v>2.7222222222222221E-2</v>
+      </c>
+      <c r="N15" s="3" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S15" s="3">
+        <f t="shared" ref="S15:Y15" si="18">S11/S2</f>
         <v>4.0786852589641431E-2</v>
       </c>
-      <c r="R15" s="3">
-        <f>R11/R2</f>
+      <c r="T15" s="3">
+        <f t="shared" si="18"/>
         <v>5.1705388037567968E-2</v>
       </c>
-      <c r="S15" s="3">
-        <f>S11/S2</f>
+      <c r="U15" s="3">
+        <f t="shared" si="18"/>
         <v>0.2070605908863295</v>
       </c>
-      <c r="T15" s="3">
-        <f>T11/T2</f>
+      <c r="V15" s="3">
+        <f t="shared" si="18"/>
         <v>-0.14655388471177944</v>
       </c>
-      <c r="U15" s="3">
-        <f>U11/U2</f>
+      <c r="W15" s="3">
+        <f t="shared" si="18"/>
         <v>6.726711271230057E-2</v>
       </c>
-      <c r="V15" s="3">
-        <f>V11/V2</f>
+      <c r="X15" s="3">
+        <f t="shared" si="18"/>
         <v>1.8139162279697873E-2</v>
       </c>
-      <c r="W15" s="3">
-        <f>W11/W2</f>
-        <v>1.2001688679814245E-2</v>
-      </c>
-      <c r="AZ15">
+      <c r="Y15" s="3">
+        <f t="shared" si="18"/>
+        <v>7.5827630848899572E-3</v>
+      </c>
+      <c r="BB15">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="17:23" x14ac:dyDescent="0.3">
-      <c r="Q17">
-        <f>Q6/Q2</f>
+    <row r="17" spans="19:25" x14ac:dyDescent="0.25">
+      <c r="S17">
+        <f t="shared" ref="S17:Y17" si="19">S6/S2</f>
         <v>0.2788844621513944</v>
       </c>
-      <c r="R17">
-        <f>R6/R2</f>
+      <c r="T17">
+        <f t="shared" si="19"/>
         <v>0.28225407810182895</v>
       </c>
-      <c r="S17">
-        <f>S6/S2</f>
+      <c r="U17">
+        <f t="shared" si="19"/>
         <v>0.24486730095142714</v>
       </c>
-      <c r="T17">
-        <f>T6/T2</f>
+      <c r="V17">
+        <f t="shared" si="19"/>
         <v>0.34335839598997492</v>
       </c>
-      <c r="U17">
-        <f>U6/U2</f>
+      <c r="W17">
+        <f t="shared" si="19"/>
         <v>0.28769943386515695</v>
       </c>
-      <c r="V17">
-        <f>V6/V2</f>
+      <c r="X17">
+        <f t="shared" si="19"/>
         <v>0.31540398260471503</v>
       </c>
-      <c r="W17">
-        <f>W6/W2</f>
-        <v>0.323804354381521</v>
-      </c>
-    </row>
-    <row r="18" spans="17:23" x14ac:dyDescent="0.3">
-      <c r="Q18" s="2"/>
-    </row>
-    <row r="22" spans="17:23" x14ac:dyDescent="0.3">
-      <c r="R22" t="s">
+      <c r="Y17">
+        <f t="shared" si="19"/>
+        <v>0.33191541828493926</v>
+      </c>
+    </row>
+    <row r="18" spans="19:25" x14ac:dyDescent="0.25">
+      <c r="S18" s="2"/>
+    </row>
+    <row r="22" spans="19:25" x14ac:dyDescent="0.25">
+      <c r="T22" t="s">
         <v>30</v>
       </c>
-      <c r="S22" s="4">
+      <c r="U22" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="17:23" x14ac:dyDescent="0.3">
-      <c r="R23" t="s">
+    <row r="23" spans="19:25" x14ac:dyDescent="0.25">
+      <c r="T23" t="s">
         <v>31</v>
       </c>
-      <c r="S23" s="4">
+      <c r="U23" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="17:23" x14ac:dyDescent="0.3">
-      <c r="R24" t="s">
+    <row r="24" spans="19:25" x14ac:dyDescent="0.25">
+      <c r="T24" t="s">
         <v>29</v>
       </c>
-      <c r="S24" s="5">
-        <f>NPV(S23,W11:AZ11)</f>
-        <v>3698.1851228907271</v>
+      <c r="U24" s="5">
+        <f>NPV(U23,Y11:BB11)</f>
+        <v>3012.0687931979733</v>
       </c>
     </row>
   </sheetData>
